--- a/grupos/6AEM - Estadisticos 20202.xlsx
+++ b/grupos/6AEM - Estadisticos 20202.xlsx
@@ -1792,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P14">
         <v>5</v>
@@ -1810,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14">
         <v>6</v>

--- a/grupos/6AEM - Estadisticos 20202.xlsx
+++ b/grupos/6AEM - Estadisticos 20202.xlsx
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -2805,7 +2805,7 @@
         <v>6</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T27">
         <v>6</v>

--- a/grupos/6AEM - Estadisticos 20202.xlsx
+++ b/grupos/6AEM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
   <si>
     <t>Materia</t>
   </si>
@@ -191,22 +191,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
+    <t>Aurioles Maldonado Luis Gustavo</t>
+  </si>
+  <si>
     <t>Velasco Sánchez David</t>
   </si>
   <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
     <t>Ortega Valle Manuel</t>
   </si>
   <si>
     <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
-    <t>Aurioles Maldonado Luis Gustavo</t>
   </si>
   <si>
     <t>NC</t>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -3815,19 +3815,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>80.56</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>19.44</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3847,19 +3847,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -3879,19 +3879,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -3911,19 +3911,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>94.44</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>5.56</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4686,7 +4686,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4716,352 +4716,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920155</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920164</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920164</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920140</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920154</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330051920163</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920176</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
